--- a/design/spiders/shop/电商爬虫.xlsx
+++ b/design/spiders/shop/电商爬虫.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CB1040-0E7B-41BD-8BC9-DCFBA6353183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,13 +60,44 @@
   </si>
   <si>
     <t>多IP，多账户，selenium 爬取商品详情出现方向模拟验证码，接口爬取商品详情，会禁用账户，并提示商品已下架，评论信息同一个账户爬多了 会限制一段时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开浏览器登录淘宝，或者登录后退出
+2.爬取列表页存入mongodb 
+3.爬取详情页（无需登录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开浏览器登录拼多多，获取登录信息cookie
+2.使用anti_content 算法爬取列表页，同时使用详情接口或者自动化打开详情页面爬取相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.多IP爬取京东商品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔爬取评论（单ip） 多ip 无需间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔爬取评论（单账户） 多账户 无需间隔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,13 +134,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -119,6 +154,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -167,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +238,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,6 +290,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,33 +482,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="2" max="2" width="38.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" customWidth="1"/>
     <col min="3" max="3" width="49.453125" customWidth="1"/>
+    <col min="4" max="5" width="43.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="52" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -446,8 +527,14 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="53.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="53.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -457,8 +544,14 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="89.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="57.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -468,11 +561,19 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -481,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -494,7 +595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/design/spiders/shop/电商爬虫.xlsx
+++ b/design/spiders/shop/电商爬虫.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CB1040-0E7B-41BD-8BC9-DCFBA6353183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0ED061-C4C1-45D4-ACFD-5AA944E1989E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,34 +63,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.打开浏览器登录拼多多，获取登录信息cookie
+2.使用anti_content 算法爬取列表页，同时使用详情接口或者自动化打开详情页面爬取相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔爬取评论（单ip） 多ip 无需间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔爬取评论（单账户） 多账户 无需间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.多IP爬取京东商品信息，单ip爬取过多会要求登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.打开浏览器登录淘宝，或者登录后退出
 2.爬取列表页存入mongodb 
-3.爬取详情页（无需登录）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开浏览器登录拼多多，获取登录信息cookie
-2.使用anti_content 算法爬取列表页，同时使用详情接口或者自动化打开详情页面爬取相关信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.多IP爬取京东商品信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔爬取评论（单ip） 多ip 无需间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔爬取评论（单账户） 多账户 无需间隔</t>
+3.爬取详情页（浏览次数多了需要登录，但是可以拿到商品信息）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,16 +134,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -505,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -517,7 +514,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="52" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -528,10 +525,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="53.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -545,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="57.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -561,11 +558,11 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/design/spiders/shop/电商爬虫.xlsx
+++ b/design/spiders/shop/电商爬虫.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0ED061-C4C1-45D4-ACFD-5AA944E1989E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FA6F84-DBC6-4656-BFDE-3C2F4AF00BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
     <t>1.打开浏览器登录淘宝，或者登录后退出
 2.爬取列表页存入mongodb 
 3.爬取详情页（浏览次数多了需要登录，但是可以拿到商品信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔爬取评论（单ip） 多ip 无需间隔， 只能爬取前一百页， 每页10条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +487,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -562,7 +566,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/design/spiders/shop/电商爬虫.xlsx
+++ b/design/spiders/shop/电商爬虫.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FA6F84-DBC6-4656-BFDE-3C2F4AF00BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A710821-A930-4706-84A5-5B4454200FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,23 +43,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多IP，无需登录，评论信息同一个IP爬多了 会限制一段时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天猫无好评数，需要统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>滑块验证 多IP，多账户， 列表页需要有登陆过的痕迹，详情页无需登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无收藏量，无信誉， 无好评数，需要统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多IP，多账户，selenium 爬取商品详情出现方向模拟验证码，接口爬取商品详情，会禁用账户，并提示商品已下架，评论信息同一个账户爬多了 会限制一段时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,25 +64,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>间隔爬取评论（单ip） 多ip 无需间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔爬取评论（单账户） 多账户 无需间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.多IP爬取京东商品信息，单ip爬取过多会要求登录</t>
+    <t>爬取分类有吹风机, 真无线蓝牙耳机 降噪 入耳式, 果蔬干, 拉杆箱, 水壶, 台灯, 电风扇, 美容器, 剃须刀, 电动牙刷, 空气炸锅, 按摩椅, 破壁机, 早餐机, 酸奶机, 电火锅, 豆芽机, 美妆冰箱, 美发梳, 除螨仪, 筋膜枪, 脱毛仪, 集成灶,衣物护理机，颈椎按摩仪,扫地机器人</t>
+  </si>
+  <si>
+    <t>单ip 间隔爬取评论， 多ip 无需间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单ip 间隔爬取评论， 多ip 无需间隔， 只能爬取前一百页， 每页10条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单账户 间隔爬取评论 多账户 无需间隔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.打开浏览器登录淘宝，或者登录后退出
-2.爬取列表页存入mongodb 
-3.爬取详情页（浏览次数多了需要登录，但是可以拿到商品信息）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔爬取评论（单ip） 多ip 无需间隔， 只能爬取前一百页， 每页10条</t>
+2.爬取列表页（获取每一页的详情地址）
+3.爬取详情页（浏览器动态加载js，获取有用的信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用多IP，单账户， 爬取列表页需要有登陆过的痕迹
+（退出后不是完全退出,浏览器记录了只有淘宝能看出来的账户信息，从而限制爬取）
+2.详情页无需登陆（有登录弹窗，但是可以拿到商品信息对于淘宝），爬取数据过多需要滑块验证，使用另一个电脑访问无滑块验证，但是使用同一账号会出现滑块验证（限制账户）
+3. 需要多个账号爬取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单IP，单账户，anti_content 算法爬取列表页， selenium 爬取商品详情页，爬取过多出现方向模拟验证码，接口爬取商品详情，会禁用账户，并提示商品已下架，评论信息同一个账户爬多了 会限制一段时间
+2. 需要多个账号爬取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.多IP，无需登录，评论信息同一个IP爬多了 会限制一段时间， 爬取过多会要求登录，可以通过清除cookie。让浏览器重新获取cookie
+2. 需要多个ip爬取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.selenium 全自动化 动态访问加载列表页，详情页数据，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,13 +146,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -506,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,38 +529,38 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="134.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="53.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="57.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -560,21 +571,36 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/spiders/shop/电商爬虫.xlsx
+++ b/design/spiders/shop/电商爬虫.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A710821-A930-4706-84A5-5B4454200FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无收藏量，无销量。 有的数据无信誉，无服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天猫无好评数，需要统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,9 +57,6 @@
   <si>
     <t>商品信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爬取分类有吹风机, 真无线蓝牙耳机 降噪 入耳式, 果蔬干, 拉杆箱, 水壶, 台灯, 电风扇, 美容器, 剃须刀, 电动牙刷, 空气炸锅, 按摩椅, 破壁机, 早餐机, 酸奶机, 电火锅, 豆芽机, 美妆冰箱, 美发梳, 除螨仪, 筋膜枪, 脱毛仪, 集成灶,衣物护理机，颈椎按摩仪,扫地机器人</t>
   </si>
   <si>
     <t>单ip 间隔爬取评论， 多ip 无需间隔</t>
@@ -97,19 +89,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>无收藏量，无销量。 有的数据无信誉，无服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.多IP，无需登录，评论信息同一个IP爬多了 会限制一段时间， 爬取过多会要求登录，可以通过清除cookie。让浏览器重新获取cookie
 2. 需要多个ip爬取数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.selenium 全自动化 动态访问加载列表页，详情页数据，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬取分类有吹风机, 真无线蓝牙耳机 降噪 入耳式, 果蔬干, 拉杆箱, 水壶, 台灯, 电风扇, 美容器, 剃须刀, 电动牙刷, 空气炸锅, 按摩椅, 破壁机, 早餐机, 酸奶机, 电火锅, 豆芽机, 美妆冰箱, 美发梳, 除螨仪, 筋膜枪, 脱毛仪, 集成灶,衣物护理机，颈椎按摩仪,扫地机器人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,7 +217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,26 +250,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,23 +285,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,11 +460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -517,10 +483,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -534,16 +500,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -551,16 +517,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="57.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -568,21 +534,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -609,7 +575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -622,7 +588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
